--- a/biology/Médecine/Syndesmose/Syndesmose.xlsx
+++ b/biology/Médecine/Syndesmose/Syndesmose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une syndesmose est une articulation fibreuse. Du point de vue fonctionnel, c'est une amphiarthrose et du point de vue structurel une synarthrose.
 Les os sont reliés par des ligaments interosseux ou des membranes interosseuses. Ils proviennent de la différenciation du blastème en périchondre, puis en tissu fibreux sous l'action des sollicitations mécaniques. 
@@ -522,7 +534,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'un traumatisme de type fracture, les syndesmoses peuvent subir des lésions ligamentaires comme des déchirures, en particulier pour les syndesmoses tibio-fibulaire et radio-ulnaire. Ces lésions peuvent exiger une réparation chirurgicale en fonction de leur degré de gravité.
 </t>
@@ -553,7 +567,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme syndesmose vient du grec σύν (syn (signifiant "avec")) et δεσμός (desmos (signifiant "une bande")).
 </t>
